--- a/Machine_Learning/Data_generator_template.xlsx
+++ b/Machine_Learning/Data_generator_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Crosstalk\Machine_Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCCFE91-48A6-4C16-8091-0D831802AADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE6D2BA-52BA-4C26-A386-60B83529F6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0CBD37D8-874B-478E-990B-362705820D59}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{0CBD37D8-874B-478E-990B-362705820D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,19 +450,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C56A25-D89C-4ABA-83AE-C678C1F4EE43}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" activeCellId="1" sqref="B3:B16 B2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.59765625" customWidth="1"/>
-    <col min="3" max="3" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="16.59765625" customWidth="1"/>
+    <col min="1" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="16.625" customWidth="1"/>
     <col min="10" max="10" width="86.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -497,12 +497,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -511,7 +511,7 @@
         <v>10000</v>
       </c>
       <c r="E2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -520,25 +520,25 @@
         <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>"Qubits_"&amp;A2&amp;"_Lines_"&amp;B2&amp;"_TS_"&amp;C2&amp;"_Shots_"&amp;D2&amp;"_MeanDecay_"&amp;E2&amp;"_MeanW_"&amp;F2&amp;"_MeanJ_"&amp;G2&amp;"_Std_"&amp;H2&amp;"_Correlations_"&amp;I2&amp;"_"&amp;K2</f>
-        <v>Qubits_2_Lines_500_TS_2_Shots_10000_MeanDecay_3_MeanW_0_MeanJ_0_Std_2_Correlations_0_1</v>
+        <v>Qubits_2_Lines_10_TS_2_Shots_10000_MeanDecay_1_MeanW_0_MeanJ_0_Std_1_Correlations_0_1</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -547,7 +547,7 @@
         <v>10000</v>
       </c>
       <c r="E3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -556,488 +556,178 @@
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1" t="str">
         <f t="shared" ref="J3:J16" si="0">"Qubits_"&amp;A3&amp;"_Lines_"&amp;B3&amp;"_TS_"&amp;C3&amp;"_Shots_"&amp;D3&amp;"_MeanDecay_"&amp;E3&amp;"_MeanW_"&amp;F3&amp;"_MeanJ_"&amp;G3&amp;"_Std_"&amp;H3&amp;"_Correlations_"&amp;I3&amp;"_"&amp;K3</f>
-        <v>Qubits_2_Lines_500_TS_2_Shots_10000_MeanDecay_3_MeanW_0_MeanJ_0_Std_2_Correlations_0_2</v>
+        <v>Qubits_2_Lines_10_TS_2_Shots_10000_MeanDecay_1_MeanW_0_MeanJ_0_Std_1_Correlations_0_2</v>
       </c>
       <c r="K3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>500</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Qubits_2_Lines_500_TS_2_Shots_10000_MeanDecay_3_MeanW_0_MeanJ_0_Std_2_Correlations_0_3</v>
-      </c>
-      <c r="K4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>500</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Qubits_2_Lines_500_TS_2_Shots_10000_MeanDecay_3_MeanW_0_MeanJ_0_Std_2_Correlations_0_4</v>
-      </c>
-      <c r="K5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>500</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Qubits_2_Lines_500_TS_2_Shots_10000_MeanDecay_3_MeanW_0_MeanJ_0_Std_2_Correlations_0_5</v>
-      </c>
-      <c r="K6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>500</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Qubits_2_Lines_500_TS_2_Shots_10000_MeanDecay_3_MeanW_0_MeanJ_0_Std_2_Correlations_0_6</v>
-      </c>
-      <c r="K7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1">
-        <v>500</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Qubits_2_Lines_500_TS_2_Shots_10000_MeanDecay_3_MeanW_0_MeanJ_0_Std_2_Correlations_0_7</v>
-      </c>
-      <c r="K8" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>500</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Qubits_2_Lines_500_TS_2_Shots_10000_MeanDecay_3_MeanW_0_MeanJ_0_Std_2_Correlations_0_8</v>
-      </c>
-      <c r="K9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>500</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Qubits_2_Lines_500_TS_2_Shots_10000_MeanDecay_3_MeanW_0_MeanJ_0_Std_2_Correlations_0_9</v>
-      </c>
-      <c r="K10" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>500</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Qubits_2_Lines_500_TS_2_Shots_10000_MeanDecay_3_MeanW_0_MeanJ_0_Std_2_Correlations_0_10</v>
-      </c>
-      <c r="K11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1">
-        <v>500</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Qubits_2_Lines_500_TS_2_Shots_10000_MeanDecay_3_MeanW_0_MeanJ_0_Std_2_Correlations_0_11</v>
-      </c>
-      <c r="K12" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1">
-        <v>500</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Qubits_2_Lines_500_TS_2_Shots_10000_MeanDecay_3_MeanW_0_MeanJ_0_Std_2_Correlations_0_12</v>
-      </c>
-      <c r="K13" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1">
-        <v>500</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>2</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Qubits_2_Lines_500_TS_2_Shots_10000_MeanDecay_3_MeanW_0_MeanJ_0_Std_2_Correlations_0_13</v>
-      </c>
-      <c r="K14" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1">
-        <v>500</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Qubits_2_Lines_500_TS_2_Shots_10000_MeanDecay_3_MeanW_0_MeanJ_0_Std_2_Correlations_0_14</v>
-      </c>
-      <c r="K15" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1">
-        <v>500</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>10000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Qubits_2_Lines_500_TS_2_Shots_10000_MeanDecay_3_MeanW_0_MeanJ_0_Std_2_Correlations_0_15</v>
-      </c>
-      <c r="K16" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
